--- a/struct/DummyData.xlsx
+++ b/struct/DummyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanika Dodhia\Documents\University\Fifth Year\Group Project\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BDC38F-CE98-498C-B12A-89940531BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47206663-847B-43FF-B2AF-A6740ED81C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D12F7EF-7898-4DF0-A7D1-8BE1FE745624}"/>
+    <workbookView xWindow="4030" yWindow="470" windowWidth="14400" windowHeight="7270" xr2:uid="{7D12F7EF-7898-4DF0-A7D1-8BE1FE745624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Weight</t>
   </si>
@@ -45,10 +45,13 @@
     <t>Stress</t>
   </si>
   <si>
-    <t>Chord Length</t>
+    <t>Root Chord</t>
   </si>
   <si>
-    <t>Span</t>
+    <t>Tip Chord</t>
+  </si>
+  <si>
+    <t>Half Span</t>
   </si>
 </sst>
 </file>
@@ -401,79 +404,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C728624-B5C9-47B1-9105-21FA925C8C78}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2">
+        <f>B2*0.45</f>
+        <v>3.15</v>
+      </c>
+      <c r="D2">
         <v>1000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>90000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C4" si="0">B3*0.45</f>
+        <v>3.6</v>
+      </c>
+      <c r="D3">
         <v>1200</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+      <c r="D4">
         <v>3000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>120000000000</v>
       </c>
     </row>
